--- a/data/Q&A_COVID-19.xlsx
+++ b/data/Q&A_COVID-19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20730" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="254">
   <si>
     <t>question</t>
   </si>
@@ -49,9 +49,6 @@
   <si>
     <t>The most common symptoms of COVID-19 are fever, dry cough, and tiredness. Other symptoms that are less common and may affect some patients include aches and pains, nasal congestion, headache, conjunctivitis, sore throat, diarrhea, loss of taste or smell or a rash on skin or discoloration of fingers or toes. These symptoms are usually mild and begin gradually. Some people become infected but only have very mild symptoms.
 Most people (about 80%) recover from the disease without needing hospital treatment. Around 1 out of every 5 people who gets COVID-19 becomes seriously ill and develops difficulty breathing. Older people, and those with underlying medical problems like high blood pressure, heart and lung problems, diabetes, or cancer, are at higher risk of developing serious illness.  However, anyone can catch COVID-19 and become seriously ill.  People of all ages who experience fever and/or  cough associated withdifficulty breathing/shortness of breath, chest pain/pressure, or loss of speech or movement should seek medical attention immediately. If possible, it is recommended to call the health care provider or facility first, so the patient can be directed to the right clinic.</t>
-  </si>
-  <si>
-    <t>How does COVID-19 spread?</t>
   </si>
   <si>
     <r>
@@ -79,14 +76,8 @@
     </r>
   </si>
   <si>
-    <t>Can COVID-19 be caught from a person who has no symptoms?</t>
-  </si>
-  <si>
     <t>COVID-19 is mainly spread through respiratory droplets expelled by someone who is coughing or has other symptoms such as fever or tiredness. Many people with COVID-19 experience only mild symptoms. This is particularly true in the early stages of the disease. It is possible to catch COVID-19 from someone who has just a mild cough and does not feel ill.
 Some reports have indicated that people with no symptoms can transmit the virus. It is not yet known how often it happens. WHO is assessing ongoing research on the topic and will continue to share updated findings.</t>
-  </si>
-  <si>
-    <t>How can we protect others and ourselves if we don't know who is infected?</t>
   </si>
   <si>
     <t xml:space="preserve">Practicing hand and respiratory hygiene is important at ALL times and is the best way to protect others and yourself.
@@ -121,9 +112,6 @@
 + Isolate for 14 days, even if you feel healthy
 + If you develop difficulty breathing, contact your healthcare provider immediately – call them first if possible
 + Stay positive and energized by keeping in touch with loved ones by phone or online, and by exercising yourself at home.</t>
-  </si>
-  <si>
-    <t>What should I do if I have no symptoms, but I think I have been exposed to COVID-19? What does it mean to self-quarantine?</t>
   </si>
   <si>
     <t xml:space="preserve">To self-quarantine means to separate yourself from others because you have been exposed to someone with COVID-19 even though you, yourself, do not have symptoms.During self-quarantine you monitor yourself for symptoms.  The goal of the self-quarantine is to prevent transmission.  Since people who become ill with COVID-19 can infect people immediately self-quarantine can prevent some infections from happening.  .
@@ -167,15 +155,9 @@
     </r>
   </si>
   <si>
-    <t>Can children or adolescents catch COVID-19?</t>
-  </si>
-  <si>
     <t>Research indicates that children and adolescents are just as likely to become infected as any other age group and can spread the disease.
 Evidence to date suggests that children and young adults are less likely to get severe disease, but severe cases can still happen in these age groups.
 Children and adults should follow the same guidance on self-quarantine and self-isolation if there is a risk they have been exposed or are showing symptoms. It is particularly important that children avoid contact with older people and others who are at risk of more severe disease.</t>
-  </si>
-  <si>
-    <t>What can I do to protect myself and prevent the spread of disease?</t>
   </si>
   <si>
     <t>Stay aware of the latest information on the COVID-19 outbreak, available on the WHO website and through your national and local public health authority. Most countries around the world have seen cases of COVID-19 and many are experiencing outbreaks. Authorities in China and some other countries have succeeded in slowing their outbreaks. However, the situation is unpredictable so check regularly for the latest news.
@@ -199,9 +181,6 @@
 - Avoid touching your eyes, mouth and nose
 - Cover your cough with the bend of elbow or tissue. If a tissue is used, discard it immediately and wash your hands.
 - Maintain a distance of at least 1 metre from others. </t>
-  </si>
-  <si>
-    <t>Does WHO recommend wearing medical masks to prevent the spread of COVID-19?</t>
   </si>
   <si>
     <t>Currently, there is not enough evidence for or against the use of masks (medical or other) in healthy individuals in the wider community. However, WHO is actively studying the rapidly evolving science on masks and continuously updates its guidance.
@@ -233,9 +212,6 @@
 Follow the advice of your national health authority on the use of masks.</t>
   </si>
   <si>
-    <t>How long does it take after exposure to COVID-19 to develop symptoms?</t>
-  </si>
-  <si>
     <t>The time between exposure to COVID-19 and the moment when symptoms start is commonly around five to six days but can range from 1 – 14 days.</t>
   </si>
   <si>
@@ -245,9 +221,6 @@
     <t>COVID-19 is spread through human-to-human transmission.
 We already know a lot about other viruses in the coronavirus family and most of these types of viruses have an origin in animals. The COVID-19 virus (also called SARS-CoV-2) is a new virus in humans. The possible animal source of COVID-19 has not yet been confirmed but research is ongoing.
 WHO continues to monitor the latest research on this and other COVID-19 topics and will update, as new findings are available.</t>
-  </si>
-  <si>
-    <t>Can I catch COVID-19 from my pet or other animals?</t>
   </si>
   <si>
     <t>Several dogs and cats (domestic cats and tigers) in contact with infected humans have tested positive for COVID-19. In addition, ferrets appear to be susceptible to the infection. In experimental conditions, both cats and ferrets were able to transmit infection to other animals of the same species. However, there is no evidence that these animals can transmit the disease to humans and spread COVID-19. COVID-19 is mainly spread through droplets produced when an infected person coughs, sneezes, or speaks.
@@ -257,9 +230,6 @@
 WHO continues to monitor the latest research on this and other COVID-19 topics and will update as new findings are available.</t>
   </si>
   <si>
-    <t>How long does the virus survive on surfaces?</t>
-  </si>
-  <si>
     <t>The most important thing to know about coronavirus on surfaces is that they can easily be cleaned with common household disinfectants that will kill the virus. Studies have shown that the COVID-19 virus can survive for up to 72 hours on plastic and stainless steel, less than 4 hours on copper and less than 24 hours on cardboard.
 As, always clean your hands with an alcohol-based hand rub or wash them with soap and water. Avoid touching your eyes, mouth, or nose.</t>
   </si>
@@ -271,38 +241,20 @@
 There is currently no confirmed case of COVID-19 transmitted through food or food packaging.</t>
   </si>
   <si>
-    <t>How to wash fruits and vegetables?</t>
-  </si>
-  <si>
     <t>Fruits and vegetables are important components of a healthy diet. Wash them the same way you should do under any circumstance: before handling them, wash your hands with soap and water. Then, wash fruits and vegetables thoroughly with clean water, especially if you eat them raw.</t>
   </si>
   <si>
-    <t>Are antibiotics effective in preventing or treating COVID-19?</t>
-  </si>
-  <si>
     <t>No. Antibiotics do not work against viruses; they only work on bacterial infections. COVID-19 is caused by a virus, so antibiotics do not work. Antibiotics should not be used as a means of prevention or treatment of COVID-19. In hospitals physicians will sometimes use antibiotics to prevent or treat secondary bacterial infections which can be a complication of COVID-19 in severely ill patients. They should only be used as directed by a physician to treat a bacterial infection.</t>
-  </si>
-  <si>
-    <t>Can I catch COVID-19 from the faeces of someone with the disease?</t>
   </si>
   <si>
     <t>While initial investigations suggest the virus may be present in faeces in some cases, to date, there have not been reports of faecal-oral transmission of COVID-19. Additionally, there is no evidence to date on the survival of the COVID-19 virus in water or sewage.
 WHO is assessing ongoing research on the ways COVID-19 is spread and will continue to share new findings on this topic.</t>
   </si>
   <si>
-    <t>Can COVID-19 be transmitted at the workplace?</t>
-  </si>
-  <si>
     <t>COVID-19 spreads primarily through respiratory droplets or contact with contaminated surfaces. Exposure can occur at the workplace, while travelling to work, during work-related travel to an area with local community transmission, as well as on the way to and from the workplace.</t>
   </si>
   <si>
-    <t>What is the risk of contracting COVID-19 in the workplace?</t>
-  </si>
-  <si>
     <t>The risk of exposure to COVID-19 in the workplace depends on the likelihood of coming within 1 metre of others, in having frequent physical contact with people who may be infected with COVID-19, and through contact with contaminated surfaces and objects.</t>
-  </si>
-  <si>
-    <t>How can people assess the risk for exposure to COVID-19 in their workplace and plan for preventive measures?</t>
   </si>
   <si>
     <t xml:space="preserve">Managers with the support of an occupational health and safety advisor should carry out rapid risk assessments to determine the possibility of exposure risk in order to put in place preventive measures. This should be done for each specific work setting and each job.
@@ -314,9 +266,6 @@
 Jobs or tasks with close contact with people who may be more likely to have COVID-19, as well as contact with objects and surfaces possibly contaminated with the virus. Examples include transporting people known or suspected to have COVID-19 without separation between the driver and the passenger, providing domestic services or home care for people with COVID-19, and having contact with the deceased who were known or suspected of having COVID-19 at the time of their death. Jobs that may fall under this category include domestic workers, social care workers, personal transport  and home delivery providers and home repair technicians (plumbers, electricians) who have to provide services in the homes of people with COVID-19.  </t>
   </si>
   <si>
-    <t>Who should carry out the workplace risk assessment?</t>
-  </si>
-  <si>
     <t>Employers and managers, in consultation with workers, should carry out and regularly update the risk assessment for work-related exposure to COVID-19, preferably with the support of occupational health services.</t>
   </si>
   <si>
@@ -360,9 +309,6 @@
 Physical distancing alone can’t prevent COVID-19 transmission, it is important that it is combined with other public health measures, such as hand and respiratory hygiene, environmental clean-up and disinfection of commonly touched surfaces and objects, ventilation, wearing face masks and a policy of staying at home if unwell. </t>
   </si>
   <si>
-    <t>What are the rights, duties and responsibilities of employers?</t>
-  </si>
-  <si>
     <t>Employers, workers, and their organizations should collaborate with health authorities to prevent and control COVID-19. Cooperation between management and workers and their representatives is essential for workplace‐related prevention measures. International labour standards on the rights and responsibilities of workers and employers in occupational safety and health should be fully respected.
 Employers, in consultation with workers and their representatives, should plan and implement measures to prevent and mitigate COVID-19 at the workplace through engineering and administrative controls, and provide personal protective equipment and clothing according to the risk assessment. Such measures should not involve any expenditure on the part of the workers.
 Special measures are needed to protect workers at higher risk of developing severe disease, such as those age 60 and over, or with underlying medical conditions, upon recommendation of the occupational health services. Workers in the informal economy and digital labour platforms, those in small enterprises, domestic and migrant workers should not be left behind in the protection of their health and safety at work and their livelihood.  
@@ -370,9 +316,6 @@
 If COVID-19 is contracted through occupational exposure, it could be considered an occupational disease and, if so determined, should be reported and compensated according to the international labour standards and the national schemes for employment injury benefits.</t>
   </si>
   <si>
-    <t>What are the rights, duties and responsibilities of workers?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Workers are responsible to follow the measures for occupational safety and health and infection prevention and control established for their workplace, and to participate in training provided by the employer. Workers should report to their supervisor any situation which may present an imminent and serious danger to their life or health. Workers have the right to remove themselves from any work situation that they have reasonable justification to believe presents an imminent and serious danger to their life or health, and should be protected from any undue consequences as a result of exercising this right. </t>
   </si>
   <si>
@@ -383,9 +326,6 @@
 The action plan and preventive measures should be regularly monitored and updated. Workers and their representatives should be consulted and should participate in the development, monitoring and updating of the workplace COVID-19. It is very important to monitor the effectiveness of preventive measures, and the compliance of workers, visitors, customers, clients and sub-contractors with the measures. The plans should be updated when someone with known or suspected COVID-19 is at the workplace.   </t>
   </si>
   <si>
-    <t>Can the return to the workplace be immediate after public measures are lifted?</t>
-  </si>
-  <si>
     <t>The return to work premises should be carefully planned ahead, with preventive measures put in place according to the risk assessment of the different jobs and work tasks. All possible risks for safety and health should be assessed, such as risks resulting from reduced maintenance of machines and facilities during the closure period.  If a return to work is rushed and not done in a phased and cautious manner, it puts lives at risk, and threatens to undermine efforts to restore social and economic activity.</t>
   </si>
   <si>
@@ -396,9 +336,6 @@
 Thermal screening at the workplace can be considered part of a package of measures to prevent and control COVID-19 at the workplace. Workers should be encouraged to self-monitor their health, possibly with the use of questionnaires, and take their own temperature regularly at home. Workplaces should adopt “stay at home if unwell” and flexible sick leave policies to discourage workers with symptoms consistent with COVID-19 from coming to the workplaces.  </t>
   </si>
   <si>
-    <t>Does WHO recommend workers wear masks at the workplace (office or others)? If yes, what type of masks?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wearing masks depends on the risk assessment. For jobs and tasks that carry a medium or high risk, for people aged 60 and older, and for those with underlying health conditions, a medical mask and other personal protective equipment should be provided. Fabric masks or face coverings are currently recommended for younger people and those with no symptoms where physical distancing is not achievable. This prevents the spread of virus from the wearer (who could have COVID-19 but no symptoms) to others. The policy on wearing a mask or face covering in low risk workplaces should be in line with national or local guidelines. Masks may carry some risks if not used properly. </t>
   </si>
   <si>
@@ -406,16 +343,10 @@
   </si>
   <si>
     <t xml:space="preserve">There should be fresh, clean air in all workplaces. For jobs and work tasks at medium or high risk of exposure, WHO recommends an increased ventilation rate through natural aeration or artificial ventilation, preferably without re-circulation of the air. In case of air recirculation, filters should be cleaned regularly. </t>
-  </si>
-  <si>
-    <t>What mental health and psychosocial support should be provided to workers during COVID-19?</t>
   </si>
   <si>
     <t>COVID-19 is associated with a range of concerns, such as fear of falling ill and dying, of being socially excluded, placed in quarantine, or losing a livelihood. Symptoms of anxiety and depression are common reactions for people in the context of COVID-19. Mental health and psychosocial support should be made available to all workers. Comprehensive risk assessments can help identify and mitigate related occupational hazards for mental health
 Full Guideline Document Considerations for public health and social measures in the workplace in the context of COVID-19 is accessible at: https://www.who.int/publications/i/item/considerations-for-public-health-and-social-measures-in-the-workplace-in-the-context-of-covid-19</t>
-  </si>
-  <si>
-    <t>What is dexamethasone and does it work against COVID-19?</t>
   </si>
   <si>
     <t>Dexamethasone is a corticosteroid used in a wide range of conditions for its anti-inflammatory and immunosuppressant effects.
@@ -423,14 +354,8 @@
 According to preliminary findings shared with WHO (and now available as a preprint), for patients on ventilators, the treatment was shown to reduce mortality by about one third, and for patients requiring only oxygen, mortality was cut by about one fifth.</t>
   </si>
   <si>
-    <t>Were all patients in recovery given dexamethasone?</t>
-  </si>
-  <si>
     <t>Eligible patients were randomly allocated between several treatment arms. Dexamethasone was administered as an oral (liquid or tablets) or intravenous preparation, at a dose of 6 mg once daily for ten days, in one of the arms.
 In pregnancy or breastfeeding women, patients were randomized to prednisolone (a milder corticosteroid) 40 mg administered by mouth.</t>
-  </si>
-  <si>
-    <t>Does WHO recommend the use of dexamethasone for COVID-19 patients?</t>
   </si>
   <si>
     <t>WHO is in the process of updating treatment guidelines to include dexamethasone or other steroids.</t>
@@ -472,13 +397,7 @@
 To reiterate: All these adverse events are not associated with short term use (with the exception of hyperglycaemia that can worsen diabetes).</t>
   </si>
   <si>
-    <t>How do the doses used in the recovery trial compare with those used normally?</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Recovery trial used dexamethasone 6mg daily oral or intravenous for ten days. Higher daily doses of dexamethasone have been used for other indications for a long time and are known to be safe.  </t>
-  </si>
-  <si>
-    <t>Can steroids be used in the elderly/children/pregnancy?</t>
   </si>
   <si>
     <t>They can be used in children and the elderly. In pregnancy, the Recovery trial used prednisolone orally or hydrocortisone by intravenous infusion instead of dexamethasone. Steroids are ubiquitous in terms of geographic use.</t>
@@ -521,19 +440,10 @@
 Increased vigilance throughout all supply chains and due diligence in any procurement activities are essential. Member States and regulatory authorities are encouraged to promptly report any incidents of substandard or falsified dexamethasone to the WHO global surveillance and monitoring system.</t>
   </si>
   <si>
-    <t>What is the worldwide production capacity?</t>
-  </si>
-  <si>
     <t>Work is ongoing to determine producers of licensed and quality assured products. Further assessments of additional production capacity will be undertaken.</t>
   </si>
   <si>
-    <t>Can COVID-19 be passed through breastfeeding?</t>
-  </si>
-  <si>
     <t>Transmission of active COVID-19 (virus that can cause infection) through breast milk and breastfeeding has not been detected to date. There is no reason to avoid or stop breastfeeding.</t>
-  </si>
-  <si>
-    <t>In communities where COVID-19 is prevalent, should mothers breastfeed?</t>
   </si>
   <si>
     <t>Yes. In all socio-economic settings, breastfeeding improves survival and provides lifelong health and development advantages to newborns and infants. Breastfeeding also improves the health of mothers.</t>
@@ -557,15 +467,9 @@
 It is important to replace medical masks as soon as they become damp and dispose of them immediately. Masks should not be reused or touched in the front.</t>
   </si>
   <si>
-    <t>If a mother confirmed or suspected to have COVID-19 does not have a medical face mask should she still breastfeed?</t>
-  </si>
-  <si>
     <t>Yes. Breastfeeding unquestionably reduces mortality in newborns and infants and provides numerous lifelong health and brain development advantages to the child. 
 Mothers with symptoms of COVID-19 are advised to wear a medical mask, but even if this is not possible, breastfeeding should be continued. Mothers should follow other infection prevention measures, such as washing hands, cleaning surfaces, sneezing or coughing into a tissue.
 Non-medical masks (e.g. home-made or cloth masks) have not been evaluated. At this time, it is not possible to make a recommendation for or against their use.</t>
-  </si>
-  <si>
-    <t>I have confirmed or suspected COVID-19 and am too unwell to breastfeed my baby directly. What can I do?</t>
   </si>
   <si>
     <t>If you are too unwell to breastfeed your baby due to COVID-19 or other complications, you should be supported to safely provide your baby with breast milk in a way possible, available, and acceptable to you. This could include:
@@ -574,13 +478,7 @@
 If expressing breast milk or donor human milk are not feasible then consider wet nursing (another woman breastfeeds the child) or infant formula milk with measures to ensure that it is feasible, correctly prepared, safe and sustainable.</t>
   </si>
   <si>
-    <t>I had confirmed or suspected COVID-19 and was unable to breastfeed, when can I start to breastfeed again?</t>
-  </si>
-  <si>
     <t>You can start to breastfeed when you feel well enough to do so. There is no fixed time interval to wait after confirmed or suspected COVID-19. There is no evidence that breastfeeding changes the clinical course of COVID-19 in a mother. Health workers or breastfeeding counsellors should support you to relactate.</t>
-  </si>
-  <si>
-    <t>I have confirmed or suspected COVID-19, is it safer to give my baby infant formula milk?</t>
   </si>
   <si>
     <t xml:space="preserve">No. There are always risks associated with giving infant formula milk to newborns and infants in all settings. The risks associated with giving infant formula milk are increased whenever home and community conditions are compromised, such as reduced access to health services if a baby becomes unwell, reduced access to clean water and/or access to supplies of infant formula milk are difficult or not guaranteed, affordable and sustainable.
@@ -599,9 +497,6 @@
     <t>Self-care interventions recommended by WHO are evidence-based and can include information about a sexual or reproductive health issue as well as ways in which individuals can obtain drugs, devices, diagnostics and/or digital products fully or partially separate from formal health services that can be used with or without the direct supervision of a health worker. For example, self-injectable contraception, HPV self-sampling kits or HIV self-tests.</t>
   </si>
   <si>
-    <t>Why are self-care interventions important during a pandemic like COVID-19?</t>
-  </si>
-  <si>
     <t>With the major disruptions to the normal functioning of national health systems caused by the need to respond to people who have or are affected by the virus, evidence-based, high-quality self-care interventions can provide an important alternative to the usual health facility- or health worker-based services. Self-care is a valuable part of a well-functioning health system and can be particularly useful when physical distancing measures make it more difficult for people to access their normal health care services and medications.</t>
   </si>
   <si>
@@ -615,15 +510,6 @@
   </si>
   <si>
     <t>In 2019, WHO issued a new guideline that brought together 32 existing or new recommendations on a range of sexual and reproductive health self-care interventions. The guideline has recommendations on pregnancy and newborn care, contraception, abortion, sexually transmitted infections including HIV and HPV, and for sexual health more broadly. </t>
-  </si>
-  <si>
-    <t>How can I get healthcare support during the COVID-19 pandemic for a self-care intervention?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are a number of ways in which support can be provided:
-Digital technologies and platforms, such as helplines through the phone or online or websites of organizations with recognized expertise may be available for consultation or follow up. Such information sources could enable you to then proceed with obtaining and self-administering an injectable contraceptive or self-testing for HIV, for example.
-It may also be possible to get over the counter medical devices, medicines, information and diagnostics through pharmacies or drug stores. Menstrual hygiene products, pregnancy tests, condoms and emergency contraception pills are usually available over-the-counter and depending on where you live, contraceptive pills and drugs that protect you from getting HIV if you think you have been exposed to risk.
-You may also be able to receive communications in a variety of ways that can help keep you healthy. Examples include notifications and reminders about taking medicines sent by SMS or email. </t>
   </si>
   <si>
     <t>Is self care safe?</t>
@@ -729,19 +615,10 @@
     <t>It should be safe provided it is possible to maintain a safe physical distance of at least one metre from all other shoppers and staff, it is possible to wash/sanitize hands, and that Good Manufacturing Practices and Good Hygienic Practices (GMP/GHP) standards are maintained in the market. For more recommendations on how to minimise the risk of transmission of emerging pathogens in wet markets, see the WHO recommendations to reduce risk of transmission of emerging pathogens from animals to humans in live animal markets or animal product markets.</t>
   </si>
   <si>
-    <t>Can adolescents catch COVID-19?</t>
-  </si>
-  <si>
     <t>Yes. All age groups can catch COVID-19. While we are still learning about how COVID-19 affects people, older persons (e.g. persons over 60 years) and persons with pre-existing medical conditions, like high blood pressure, heart disease, lung disease, cancer or diabetes, appear to develop serious illness more often than others. As this is a new virus, we are still learning about how it affects children and adolescents. Evidence to date suggests that children and adolescents are less likely to get severe disease, but severe cases and death can still happen in these age groups.</t>
   </si>
   <si>
-    <t>Can adolescents spread COVID-19 to other people even if they have mild or no symptoms?</t>
-  </si>
-  <si>
     <t>Yes.  Infected people in all age groups – including adolescents - can transmit the virus to other people, even if  they have mild symptoms or do not feel ill. The virus is spread from person to person through small droplets from the nose or mouth which are spread when a person with COVID-19 coughs, sneezes or speaks. These droplets can land on objects and surfaces. People can then become infected by touching these objects or surfaces, and then touching their eyes, nose or mouth. </t>
-  </si>
-  <si>
-    <t>Since there are few known cases of adolescents getting seriously ill with COVID-19, should I go to a health facility if I develop symptoms of the disease?</t>
   </si>
   <si>
     <t>If you have minor symptoms, such as a slight cough or a mild fever, there is generally no need to seek medical care. Stay at home, self-isolate and monitor your symptoms. Follow national guidance on self-isolation.  
@@ -749,9 +626,6 @@
 Seek medical care if your health gets worse, or if there is no one in your family that can take care of you at home. It is important that you follow the procedures put in place by your country. Ask a family member or another trusted adult how you can find out what these procedures are where you live.</t>
   </si>
   <si>
-    <t>What should I do if someone in my family gets really ill with COVID-19?</t>
-  </si>
-  <si>
     <t>Seek medical care, if members of your family get seriously ill.  If possible, either you or an adult should phone the local or national COVID-19 emergency number for advice on where and how you could get care. If your family member is confirmed as having COVID-19, you must be prepared that you and other known contacts will need to monitor your symptoms, and continue to self-quarantine for 14 days, even if you feel healthy.</t>
   </si>
   <si>
@@ -779,9 +653,6 @@
   </si>
   <si>
     <t>Explain to your friends why it is important to protect themselves and others by washing their hands, avoiding touching their face, always coughing or sneezing into their elbow, sleeve, or a tissue, and cooperating with physical distancing measures and movement restrictions when called on to do so. Maybe you can share ideas for fun virtual activities that your friends can participate in,  and you can encourage them to do them together with you or with other friends. This way you are giving them alternatives rather than just telling them to stay at home. But, remember that you do not have control over other peoples’ actions so do not get into an argument or a fight to try to change their minds. </t>
-  </si>
-  <si>
-    <t>I am feeling really anxious about COVID-19 and its impact on my life. What should I do?</t>
   </si>
   <si>
     <t xml:space="preserve">In situations like a pandemic it is very normal to feel anxious and powerless, and that is ok. Here are a few suggestions on things that could help you proactively manage your anxiety:
@@ -815,13 +686,7 @@
 Of course, if you have any concerns with going back to school, do not hesitate to speak out to your teachers and parents or guardians. </t>
   </si>
   <si>
-    <t>I know there is a risk of getting COVID-19 at the moment, but I feel fine. Can I still play sports?</t>
-  </si>
-  <si>
     <t>Yes. You can still play sports that are in line with the physical distancing measures and movement restrictions that are in place in your country. Being physically active is good for your health, both physical and mental. Set up a regular routine to practice activities or sports that do not require close contact with others every day for 1 hour. You can do individual sports, like jogging, walking, dancing or yoga. There are many options to try. You can set up playground games indoors, such as jump rope and hop-scotch, play with your brothers and sisters, and practice some strength training activities, using improvised weights like bottles full of water or sand. If you have access to the internet, you can also join in online active games or fitness classes, or set up your own online physical exercises with your friends or classmates. Find an activity that is fun, can be done within the restrictions that are in place in your country, and makes you feel good.</t>
-  </si>
-  <si>
-    <t>I am missing out on my education because of the COVID-19 pandemic. What should I do?</t>
   </si>
   <si>
     <t>Your school or place where you are studying are likely to make arrangements for you to catch up or to do exams at another time. Follow the procedures that your school has put in place to reduce the immediate impact of school closures, and to facilitate the continuity of education. If you have access to internet, you can also consult your teachers and other trusted adults to identify and access reliable online learning opportunities and resources, including those included in the distance learning solutions recommended by UNESCO, the United Nations agency that helps countries improve their education systems. In addition, UNESCO is collecting stories from students, teachers and parents about how they are coping and continuing to learn during school closures. Access those stories, they might inspire you. You can also contact UNESCO and share your story!
@@ -833,12 +698,6 @@
   <si>
     <t>A near-constant stream of news, sometimes contradictory, can cause anyone to feel lost and distressed. Make sure to use reliable sources such as the UNICEF and the World Health Organization’s sites to get information, or to check any information you might be getting through less reliable channels.
 If you have a phone, you can use the WHO Health Alert on WhatsApp to get the latest information about the pandemic. This is a new service, which is free to use, designed to give prompt, reliable and official information 24 hours a day, worldwide. Start by clicking WHO Health Alert, then simply text the word ‘Hi’ in a WhatsApp message to get started. Keep in mind that overloading yourself with information about the COVID-19 pandemic can also be stressful, so seek information updates and practical guidance at specific times during the day and avoid listening to or following rumours that make you feel uncomfortable.</t>
-  </si>
-  <si>
-    <t>Is it safe to have sex at this time?</t>
-  </si>
-  <si>
-    <t>There is no evidence that COVID-19 is transmitted through semen or vaginal fluids. However, having sex with someone means that you are very close to them. This puts one person at risk if the other person has COVID-19. Masturbation does not involve another person, and carries no risk of COVID-19. Also, having sex with a partner whom you are living with does not carry this risk if both of you are taking steps to protect yourself from the virus. Make sure to use condoms and contraception to avoid sexually transmitted infections and unintended pregnancy.</t>
   </si>
   <si>
     <t>In the lockdown, I am spending much more time online playing games, socialising and studying. Should I be worried about this?</t>
@@ -960,9 +819,6 @@
   <si>
     <t>Some governments have suggested that the detection of antibodies to the SARS-CoV-2, the virus that causes COVID-19, could serve as the basis for an “immunity passport” or “risk-free certificate” that would enable individuals to travel or to return to work assuming that they are protected against re-infection. At this point in the pandemic, there is not enough evidence about the effectiveness of antibody-mediated immunity to guarantee the accuracy of an “immunity passport” or “risk-free certificate.” That is, there is currently no evidence to determine whether or not people who have recovered from COVID-19 and have antibodies are protected from a second infection.
 WHO view on the use of an "Immunity passports" in the context of COVID-19 is available here: https://www.who.int/news-room/commentaries/detail/immunity-passports-in-the-context-of-covid-19</t>
-  </si>
-  <si>
-    <t>How is COVID-19 transmitted?</t>
   </si>
   <si>
     <t xml:space="preserve">People can catch COVID-19 from others who have the virus. The disease can spread from person to person through small droplets from the nose or mouth, which are spread when a person with COVID-19 coughs or exhales. These droplets land on objects and surfaces around the person. Other people then catch COVID-19 by touching these objects or surfaces, and then touching their eyes, nose or mouth. People can also catch COVID-19 if they breathe in droplets from a person with COVID-19 who coughs out or exhales droplets. </t>
@@ -993,9 +849,6 @@
 This includes tables, doorknobs, light switches, countertops, handles, desks, phones, keyboards, toilets, taps, and sinks. If surfaces are dirty, use detergent or soap and water prior to disinfection.</t>
   </si>
   <si>
-    <t>What can older people do to prepare for COVID-19 in their community?</t>
-  </si>
-  <si>
     <t xml:space="preserve">There is a lot that you can do to prepare for COVID-19 in your community.
 Inform yourself of the special measures taken in your community as well as the services and the sources of reliable information that are availableduring the health emergency (e.g. home deliveries, psychosocial support, health ministry website, alternative access to your pension).
 Create a list of the basic supplies that you will need for at least two weeks and try to get these delivered where possible (e.g. non-perishable food items, household products, batteries for assistive devices you may use, and prescription medicines). Alternatively, ask family members, caregivers, neighbours or community leaders to help with ordering and/or delivery of groceries or prescription medicines. Make sure that your mobile phone credit is topped up and identify a safe place to charge your phone regularly so that you can keep in contact with family and friends and reach emergency services if needed.  
@@ -1023,9 +876,6 @@
 10. If stress, worry, fear or sadness get in the way of your daily activities for several days in a row, seek psychosocial support from available services in your community.  If you are subject to abuse or violence from others, tell someone you trust and report this to the relevant authorities. You can also seek support from dedicated helplines that may be available in your country.</t>
   </si>
   <si>
-    <t>What should I do if I have symptoms of COVID-19?</t>
-  </si>
-  <si>
     <t>If you present symptoms related to COVID-19, seek medical advice. Call by phone first if possible and give information about pre-existing health conditions and medicines that you are taking. Follow the instructions of the health-care worker and monitor your symptoms regularly.
 If you have difficulty breathing, contact health emergencies immediately as this may be due to a respiratory infection. Call by phone first if possible to learn what to do next.
 If you live with others, make sure that you isolate yourself as soon as you suspect infectionby using the space that you identified in advance. You and other members of the household should also wear a medical mask as much as possible if these are available.
@@ -1043,6 +893,172 @@
 Keep to your routines as much as you feel able and try to focus on activities that bring you joy.
 Seek advice and comfort from people that you trust (e.g. religious/faith leaders, mental health workers or other trusted members of your community) while maintaining physical distance (e.g. attending virtual mass).
 Think of alternative ways to say goodbye to the person who passed away such as writing a letter or dedicating a drawing to your loved one. These are small actions that can help you cope with grief and loss, particularly in situations where funeral services are not permitted</t>
+  </si>
+  <si>
+    <t>How can we protect ourselves if we don't know who is infected by coronavirus?</t>
+  </si>
+  <si>
+    <t>How does coronavirus spreads?</t>
+  </si>
+  <si>
+    <t>Can coronavirus be caught from a person who has no symptoms?</t>
+  </si>
+  <si>
+    <t>What should i think that have been exposed to COVID-19?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What does it mean to self-quarantine?</t>
+  </si>
+  <si>
+    <t>Can children or adolescents catch COVID-19 or coronavirus?</t>
+  </si>
+  <si>
+    <t>What can I do to protect myself from coronavirus or covid-19 ?</t>
+  </si>
+  <si>
+    <t>Does WHO recommend wearing medical masks to prevent the spread of COVID-19 or coronavirus?</t>
+  </si>
+  <si>
+    <t>How long does it take after exposure to COVID-19 or coronavirus to develop symptoms?</t>
+  </si>
+  <si>
+    <t>Can I catch COVID-19 or coronavirus from my pet or other animals?</t>
+  </si>
+  <si>
+    <t>How long does the vocid-19 or coronavirus survive on surfaces?</t>
+  </si>
+  <si>
+    <t>How to wash fruits and vegetables from coronavirus or covid-19?</t>
+  </si>
+  <si>
+    <t>Are antibiotics effective in preventing or treating COVID-19 or coronavirus?</t>
+  </si>
+  <si>
+    <t>Can I catch COVID-19 or coronavirus from the face of someone with the disease?</t>
+  </si>
+  <si>
+    <t>Can coronavirus COVID-19 be transmitted at the workplace?</t>
+  </si>
+  <si>
+    <t>What is the risk of contracting COVID-19 or coronavirus in the workplace?</t>
+  </si>
+  <si>
+    <t>How can people assess the risk for exposure to coronavirus or COVID-19 in their workplace and plan for preventive measures?</t>
+  </si>
+  <si>
+    <t>Who should carry out the workplace risk assessment from coronavirus or covid-19?</t>
+  </si>
+  <si>
+    <t>i am afraid of coronavirus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hhhh you dont have, you are not the only one against coronavirus as you are not in the first range ,even if you are you know that people whoes daie because of suffering from hunger are Every year, around 9 million ,what this number present in front of covid-19 ,you have to know that this may be juste a political game ,as it is 100% a Media game
+</t>
+  </si>
+  <si>
+    <t>What are the rights, duties and responsibilities of workers under coronavirus ?</t>
+  </si>
+  <si>
+    <t>What are the rights, duties and responsibilities of employers under covid-19 or coronavirus?</t>
+  </si>
+  <si>
+    <t>Can the return to the workplace be immediate after public measures are lifted under coronavirus?</t>
+  </si>
+  <si>
+    <t>Does WHO recommend workers wear masks at the workplace (office or others)?</t>
+  </si>
+  <si>
+    <t>what type of masks should i use or adviced by WHO?</t>
+  </si>
+  <si>
+    <t>What mental health and psychosocial support should be provided to workers during COVID-19 or coronavirus?</t>
+  </si>
+  <si>
+    <t>What is dexamethasone and does it work against COVID-19 or coronavirus?</t>
+  </si>
+  <si>
+    <t>Were all patients in recovery given dexamethasone ?</t>
+  </si>
+  <si>
+    <t>Does WHO recommend the use of dexamethasone for COVID-19 or coronavirus patients?</t>
+  </si>
+  <si>
+    <t>How do the doses of dexamethasone are used in the recovery trial compare with those used normally?</t>
+  </si>
+  <si>
+    <t>Can steroids be used in the elderly / children / pregnancy?</t>
+  </si>
+  <si>
+    <t>What is the worldwide production capacity of substandard falsified?</t>
+  </si>
+  <si>
+    <t>Why are self-care interventions important during a pandemic like coronavirus or COVID-19?</t>
+  </si>
+  <si>
+    <t>How can I get healthcare support during the COVID-19 or  coronavirus  pandemic for a self-care intervention?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> By chatting with me hhhhhh.In fact there are a number of ways in which support can be provided:
+Digital technologies and platforms, such as helplines through the phone or online or websites of organizations with recognized expertise may be available for consultation or follow up. Such information sources could enable you to then proceed with obtaining and self-administering an injectable contraceptive or self-testing for HIV, for example.
+It may also be possible to get over the counter medical devices, medicines, information and diagnostics through pharmacies or drug stores. Menstrual hygiene products, pregnancy tests, condoms and emergency contraception pills are usually available over-the-counter and depending on where you live, contraceptive pills and drugs that protect you from getting HIV if you think you have been exposed to risk.
+You may also be able to receive communications in a variety of ways that can help keep you healthy. Examples include notifications and reminders about taking medicines sent by SMS or email. </t>
+  </si>
+  <si>
+    <t>Can COVID-19/ coronavirus  be passed through breastfeeding?</t>
+  </si>
+  <si>
+    <t>In communities where COVID-19 or coronavirus is prevalent, should mothers breastfeed?</t>
+  </si>
+  <si>
+    <t>If a mother confirmed or suspected to have COVID-19 or coronavirus does not have a medical face mask should she still breastfeed?</t>
+  </si>
+  <si>
+    <t>I have confirmed or suspected  coronavirus / COVID-19  and am too unwell to breastfeed my baby directly. What can I do?</t>
+  </si>
+  <si>
+    <t>I had confirmed or suspected COVID-19 or coronavirus and was unable to breastfeed, when can I start to breastfeed again?</t>
+  </si>
+  <si>
+    <t>I have confirmed or suspected COVID-19 or coronavirus, is it safer to give my baby infant formula milk?</t>
+  </si>
+  <si>
+    <t>Can adolescents catch coronavirus / COVID-19?</t>
+  </si>
+  <si>
+    <t>Can adolescents spread COVID-19 / coronavirus to other people even if they have mild or no symptoms?</t>
+  </si>
+  <si>
+    <t>Since there are few known cases of adolescents getting seriously ill with COVID-19 or coronavirus, should I go to a health facility if I develop symptoms of the disease?</t>
+  </si>
+  <si>
+    <t>What should I do if someone in my family gets really ill with coronavirus or COVID-19?</t>
+  </si>
+  <si>
+    <t>I am feeling really anxious about COVID-19 and coronavirus, its impact on my life. What should I do?</t>
+  </si>
+  <si>
+    <t>I know there is a risk of getting COVID-19, coronavirus at the moment, but I feel fine. Can I still play sports?</t>
+  </si>
+  <si>
+    <t>I am missing out on my education because of the COVID-19, coronavirus pandemic. What should I do?</t>
+  </si>
+  <si>
+    <t>Is it safe to have sex at this time of coronavirus?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a world with your wife yes else No, don't try </t>
+  </si>
+  <si>
+    <t>How is COVID-19 or coronavirus transmitted?</t>
+  </si>
+  <si>
+    <t>Is there a vaccine, drug or treatment for COVID-19 or coronavirus?</t>
+  </si>
+  <si>
+    <t>What can older people do to prepare for COVID-19 or coronavirus in their community?</t>
+  </si>
+  <si>
+    <t>What should I do if I have symptoms of COVID-19 or coronavirus ?</t>
   </si>
 </sst>
 </file>
@@ -1421,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,962 +1491,986 @@
     </row>
     <row r="6" spans="1:2" ht="90.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="195.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="75.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="240.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>215</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="75.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>225</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>227</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>231</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>235</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="75.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>143</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>178</v>
+        <v>243</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>248</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/Q&A_COVID-19.xlsx
+++ b/data/Q&A_COVID-19.xlsx
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>COVID-19 is the infectious disease caused by the most recently discovered coronavirus. This new virus and disease were unknown before the outbreak began in Wuhan, China, in December 2019. COVID-19 is now a pandemic affecting many countries globally.</t>
-  </si>
-  <si>
-    <t>What are the symptoms of COVID-19?</t>
-  </si>
-  <si>
-    <t>What should I do if I have COVID-19 symptoms and when should I seek medical care?</t>
   </si>
   <si>
     <t>If you have minor symptoms, such as a slight cough or a mild fever, there is generally no need to seek medical care. Stay at home, self-isolate and monitor your symptoms. Follow national guidance on self-isolation.
@@ -1059,6 +1053,12 @@
   </si>
   <si>
     <t>What should I do if I have symptoms of COVID-19 or coronavirus ?</t>
+  </si>
+  <si>
+    <t>What are the symptoms of COVID-19 or coronavirus ?</t>
+  </si>
+  <si>
+    <t>What should I do if I have coronavirus COVID-19 symptoms and when should I seek medical care?</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1475,1002 +1475,1002 @@
     </row>
     <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>252</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="90.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="195.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="75.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="240.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="75.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="75.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
